--- a/test_file/gen/電動機特性計算表a.xlsx
+++ b/test_file/gen/電動機特性計算表a.xlsx
@@ -1551,7 +1551,11 @@
           <t>試驗日期 :</t>
         </is>
       </c>
-      <c r="C4" s="94" t="inlineStr"/>
+      <c r="C4" s="94" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
       <c r="H4" s="2" t="n"/>
       <c r="I4" s="8" t="n"/>
       <c r="J4" s="8" t="n"/>
@@ -1572,7 +1576,7 @@
       <c r="B5" s="105" t="n"/>
       <c r="C5" s="106" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>編號123456</t>
         </is>
       </c>
       <c r="D5" s="107" t="n"/>
@@ -1585,7 +1589,7 @@
       <c r="G5" s="105" t="n"/>
       <c r="H5" s="109" t="inlineStr">
         <is>
-          <t>S123</t>
+          <t>Ser123</t>
         </is>
       </c>
       <c r="I5" s="107" t="n"/>
@@ -1598,7 +1602,7 @@
       <c r="L5" s="105" t="n"/>
       <c r="M5" s="110" t="inlineStr">
         <is>
-          <t>T123</t>
+          <t>Type123</t>
         </is>
       </c>
       <c r="N5" s="107" t="n"/>
@@ -1615,7 +1619,7 @@
       <c r="B6" s="113" t="n"/>
       <c r="C6" s="114" t="inlineStr">
         <is>
-          <t>W123</t>
+          <t>Work123</t>
         </is>
       </c>
       <c r="D6" s="115" t="n"/>
@@ -1628,7 +1632,7 @@
       <c r="G6" s="113" t="n"/>
       <c r="H6" s="116" t="inlineStr">
         <is>
-          <t>M123</t>
+          <t>Make123</t>
         </is>
       </c>
       <c r="I6" s="115" t="n"/>
